--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -20,9 +20,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="100">
   <si>
-    <t>Medve dobozos natúr 140g</t>
-  </si>
-  <si>
     <t>Medve</t>
   </si>
   <si>
@@ -32,84 +29,21 @@
     <t>Répcelak</t>
   </si>
   <si>
-    <t>Medve dobozos szalámis 140g</t>
-  </si>
-  <si>
-    <t>Medve dobozos sonkás 140g</t>
-  </si>
-  <si>
-    <t>Medve dobozos zöldfűszseres 140g</t>
-  </si>
-  <si>
-    <t>Medve dobozos csípőspaprikás 140g</t>
-  </si>
-  <si>
-    <t>Medve dobozos kolbászos 140g</t>
-  </si>
-  <si>
     <t>Medve dobozos light 140g</t>
   </si>
   <si>
-    <t>Medve dobozos laktózmentes 140g</t>
-  </si>
-  <si>
     <t>Medve dobozos mix 140g</t>
   </si>
   <si>
-    <t>Medve dobozos fokhagymás-zöldfűszeres 140g</t>
-  </si>
-  <si>
-    <t>Medve dobozos natúr 200g</t>
-  </si>
-  <si>
     <t>kördobozos 200g</t>
   </si>
   <si>
-    <t>Medve dobozos szalámis 200g</t>
-  </si>
-  <si>
-    <t>Medve dobozos sonkás 200g</t>
-  </si>
-  <si>
-    <t>Medve dobozos zöldfűszeres 200g</t>
-  </si>
-  <si>
-    <t>Medve dobozos csípős 200g</t>
-  </si>
-  <si>
-    <t>Medve dobozos kolbászos 200g</t>
-  </si>
-  <si>
-    <t>Medve dobozos natúr 280g</t>
-  </si>
-  <si>
     <t>kördobozos 280g</t>
   </si>
   <si>
-    <t>Medve dobozos szalámis 280g</t>
-  </si>
-  <si>
-    <t>Medve dobozos sonkás 280g</t>
-  </si>
-  <si>
-    <t>Medve dobozos csípős 280g</t>
-  </si>
-  <si>
-    <t>Medve tömlős natúr 100g</t>
-  </si>
-  <si>
     <t>tömlős 100g</t>
   </si>
   <si>
-    <t>Medve tömlős csípős 100g</t>
-  </si>
-  <si>
-    <t>Medve tömlős zöldfűszeres 100g</t>
-  </si>
-  <si>
-    <t>Medve tömlős tejszínes 100g</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -197,127 +131,193 @@
     <t>szeletelt</t>
   </si>
   <si>
-    <t>EXPORT Medve dobozos natúr 140g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos szalámis 140g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos sonkás 140g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos zöldfűszseres 140g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos csípőspaprikás 140g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos kolbászos 140g</t>
-  </si>
-  <si>
     <t>EXPORT Medve dobozos light 140g</t>
   </si>
   <si>
-    <t>EXPORT Medve dobozos laktózmentes 140g</t>
-  </si>
-  <si>
     <t>EXPORT Medve dobozos mix 140g</t>
   </si>
   <si>
-    <t>EXPORT Medve dobozos fokhagymás-zöldfűszeres 140g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos natúr 200g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos szalámis 200g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos sonkás 200g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos zöldfűszeres 200g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos csípős 200g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos kolbászos 200g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos natúr 280g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos szalámis 280g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos sonkás 280g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve dobozos csípős 280g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve tömlős natúr 100g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve tömlős csípős 100g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve tömlős zöldfűszeres 100g</t>
-  </si>
-  <si>
-    <t>EXPORT Medve tömlős tejszínes 100g</t>
-  </si>
-  <si>
-    <t>Karaván natúr tömb 1,2kg</t>
-  </si>
-  <si>
-    <t>Karaván fokhagymás tömb 1,2kg</t>
-  </si>
-  <si>
-    <t>Karaván sonkás tömb 1,2kg</t>
-  </si>
-  <si>
-    <t>Karaván nutellás tömb 1,2kg</t>
-  </si>
-  <si>
     <t>Private label</t>
   </si>
   <si>
-    <t>Karaván natúr tömb 2,5kg</t>
-  </si>
-  <si>
-    <t>Karaván fokhagymás tömb 2,5kg</t>
-  </si>
-  <si>
-    <t>Karaván sonkás tömb 2,5kg</t>
-  </si>
-  <si>
-    <t>Karaván natúr kördobozos 140g</t>
-  </si>
-  <si>
-    <t>Karaván fokhagymás kördobozos 140g</t>
-  </si>
-  <si>
-    <t>Karaván sonkás kördobozos 140g</t>
-  </si>
-  <si>
-    <t>Karaván natúr tömlős 100g</t>
-  </si>
-  <si>
-    <t>Karaván fokhagymás tömlős 100g</t>
-  </si>
-  <si>
-    <t>Karaván sonkás tömlős 100g</t>
-  </si>
-  <si>
-    <t>Pannónia tömb 1,2kg</t>
-  </si>
-  <si>
-    <t>Pannónia light tömb 1,2kg</t>
-  </si>
-  <si>
-    <t>Pannónia bársony tömb 1,2kg</t>
+    <t>Medve dobozos natur 140g</t>
+  </si>
+  <si>
+    <t>Medve dobozos natur 200g</t>
+  </si>
+  <si>
+    <t>Medve dobozos natur 280g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos natur 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos natur 200g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos natur 280g</t>
+  </si>
+  <si>
+    <t>Medve dobozos szalamis 140g</t>
+  </si>
+  <si>
+    <t>Medve dobozos sonkas 140g</t>
+  </si>
+  <si>
+    <t>Medve dobozos kolbaszos 140g</t>
+  </si>
+  <si>
+    <t>Medve dobozos szalamis 200g</t>
+  </si>
+  <si>
+    <t>Medve dobozos sonkas 200g</t>
+  </si>
+  <si>
+    <t>Medve dobozos kolbaszos 200g</t>
+  </si>
+  <si>
+    <t>Medve dobozos szalamis 280g</t>
+  </si>
+  <si>
+    <t>Medve dobozos sonkas 280g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos szalamis 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos sonkas 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos kolbaszos 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos szalamis 200g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos sonkas 200g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos kolbaszos 200g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos szalamis 280g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos sonkas 280g</t>
+  </si>
+  <si>
+    <t>Karavan natur tomb 1,2kg</t>
+  </si>
+  <si>
+    <t>Karavan fokhagymas tomb 1,2kg</t>
+  </si>
+  <si>
+    <t>Karavan sonkas tomb 1,2kg</t>
+  </si>
+  <si>
+    <t>Karavan nutellas tomb 1,2kg</t>
+  </si>
+  <si>
+    <t>Karavan natur tomb 2,5kg</t>
+  </si>
+  <si>
+    <t>Karavan fokhagymas tomb 2,5kg</t>
+  </si>
+  <si>
+    <t>Karavan sonkas tomb 2,5kg</t>
+  </si>
+  <si>
+    <t>Karavan natur kordobozos 140g</t>
+  </si>
+  <si>
+    <t>Karavan fokhagymas kordobozos 140g</t>
+  </si>
+  <si>
+    <t>Karavan sonkas kordobozos 140g</t>
+  </si>
+  <si>
+    <t>Pannonia tomb 1,2kg</t>
+  </si>
+  <si>
+    <t>Pannonia light tomb 1,2kg</t>
+  </si>
+  <si>
+    <t>Pannonia barsony tomb 1,2kg</t>
+  </si>
+  <si>
+    <t>Medve dobozos zoldfuszseres 140g</t>
+  </si>
+  <si>
+    <t>Medve dobozos fokhagymas-zoldfuszeres 140g</t>
+  </si>
+  <si>
+    <t>Medve dobozos zoldfuszeres 200g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos zoldfuszseres 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos fokhagymas-zoldfuszeres 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos zoldfuszeres 200g</t>
+  </si>
+  <si>
+    <t>Medve tomlos natur 100g</t>
+  </si>
+  <si>
+    <t>Medve tomlos zoldfuszeres 100g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve tomlos natur 100g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve tomlos zoldfuszeres 100g</t>
+  </si>
+  <si>
+    <t>Karavan natur tomlos 100g</t>
+  </si>
+  <si>
+    <t>Karavan fokhagymas tomlos 100g</t>
+  </si>
+  <si>
+    <t>Karavan sonkas tomlos 100g</t>
+  </si>
+  <si>
+    <t>Medve dobozos csipospaprikas 140g</t>
+  </si>
+  <si>
+    <t>Medve dobozos csipos 200g</t>
+  </si>
+  <si>
+    <t>Medve dobozos csipos 280g</t>
+  </si>
+  <si>
+    <t>Medve tomlos csipos 100g</t>
+  </si>
+  <si>
+    <t>Medve tomlos tejszines 100g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos csipospaprikas 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos csipos 200g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos csipos 280g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve tomlos csipos 100g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve tomlos tejszines 100g</t>
+  </si>
+  <si>
+    <t>Medve dobozos laktozmentes 140g</t>
+  </si>
+  <si>
+    <t>EXPORT Medve dobozos laktozmentes 140g</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,49 +1157,49 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1207,7 +1207,7 @@
         <v>1000</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>1000</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1289,7 +1289,7 @@
         <v>1000</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1330,7 +1330,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>1001</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1412,7 +1412,7 @@
         <v>1001</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>1002</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>1002</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1535,7 +1535,7 @@
         <v>1002</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1576,7 +1576,7 @@
         <v>1003</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1617,7 +1617,7 @@
         <v>1003</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1658,7 +1658,7 @@
         <v>1003</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>1004</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>1004</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1781,7 +1781,7 @@
         <v>1004</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1822,7 +1822,7 @@
         <v>1005</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1863,7 +1863,7 @@
         <v>1005</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1904,7 +1904,7 @@
         <v>1005</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>1006</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1986,7 +1986,7 @@
         <v>1006</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2027,7 +2027,7 @@
         <v>1006</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2068,7 +2068,7 @@
         <v>1007</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2109,7 +2109,7 @@
         <v>1007</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2150,7 +2150,7 @@
         <v>1007</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2191,7 +2191,7 @@
         <v>1008</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2232,7 +2232,7 @@
         <v>1008</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2273,7 +2273,7 @@
         <v>1008</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2314,7 +2314,7 @@
         <v>1009</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1009</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2396,7 +2396,7 @@
         <v>1009</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2437,7 +2437,7 @@
         <v>1010</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>1010</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2519,7 +2519,7 @@
         <v>1010</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2560,7 +2560,7 @@
         <v>1011</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>1011</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -2642,7 +2642,7 @@
         <v>1011</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -2683,7 +2683,7 @@
         <v>1012</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2724,7 +2724,7 @@
         <v>1012</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2765,7 +2765,7 @@
         <v>1012</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2806,7 +2806,7 @@
         <v>1013</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>1013</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2888,7 +2888,7 @@
         <v>1013</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -2929,7 +2929,7 @@
         <v>1014</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>1014</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3011,7 +3011,7 @@
         <v>1014</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3052,7 +3052,7 @@
         <v>1015</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>1015</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3134,7 +3134,7 @@
         <v>1015</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3175,7 +3175,7 @@
         <v>1020</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -3216,7 +3216,7 @@
         <v>1020</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3257,7 +3257,7 @@
         <v>1020</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>1021</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>1021</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3380,7 +3380,7 @@
         <v>1021</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3421,7 +3421,7 @@
         <v>1022</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3462,7 +3462,7 @@
         <v>1022</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3503,7 +3503,7 @@
         <v>1022</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3544,7 +3544,7 @@
         <v>1023</v>
       </c>
       <c r="C59" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3585,7 +3585,7 @@
         <v>1023</v>
       </c>
       <c r="C60" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -3626,7 +3626,7 @@
         <v>1023</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -3667,7 +3667,7 @@
         <v>1030</v>
       </c>
       <c r="C62" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         <v>1030</v>
       </c>
       <c r="C63" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -3749,7 +3749,7 @@
         <v>1030</v>
       </c>
       <c r="C64" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -3790,7 +3790,7 @@
         <v>1031</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>1031</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>1031</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>1032</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3954,7 +3954,7 @@
         <v>1032</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3995,7 +3995,7 @@
         <v>1032</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -4036,7 +4036,7 @@
         <v>1033</v>
       </c>
       <c r="C71" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4077,7 +4077,7 @@
         <v>1033</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4118,7 +4118,7 @@
         <v>1033</v>
       </c>
       <c r="C73" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4159,7 +4159,7 @@
         <v>9000</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>9000</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4241,7 +4241,7 @@
         <v>9000</v>
       </c>
       <c r="C76" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4282,7 +4282,7 @@
         <v>9001</v>
       </c>
       <c r="C77" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4323,7 +4323,7 @@
         <v>9001</v>
       </c>
       <c r="C78" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4364,7 +4364,7 @@
         <v>9001</v>
       </c>
       <c r="C79" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4405,7 +4405,7 @@
         <v>9002</v>
       </c>
       <c r="C80" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4446,7 +4446,7 @@
         <v>9002</v>
       </c>
       <c r="C81" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4487,7 +4487,7 @@
         <v>9002</v>
       </c>
       <c r="C82" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -4528,7 +4528,7 @@
         <v>9003</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -4569,7 +4569,7 @@
         <v>9003</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4610,7 +4610,7 @@
         <v>9003</v>
       </c>
       <c r="C85" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4651,7 +4651,7 @@
         <v>9004</v>
       </c>
       <c r="C86" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v>9004</v>
       </c>
       <c r="C87" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4733,7 +4733,7 @@
         <v>9004</v>
       </c>
       <c r="C88" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -4774,7 +4774,7 @@
         <v>9005</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>9005</v>
       </c>
       <c r="C90" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -4856,7 +4856,7 @@
         <v>9005</v>
       </c>
       <c r="C91" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -4897,7 +4897,7 @@
         <v>9006</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -4938,7 +4938,7 @@
         <v>9006</v>
       </c>
       <c r="C93" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -4979,7 +4979,7 @@
         <v>9006</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -5020,7 +5020,7 @@
         <v>9007</v>
       </c>
       <c r="C95" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -5061,7 +5061,7 @@
         <v>9007</v>
       </c>
       <c r="C96" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -5102,7 +5102,7 @@
         <v>9007</v>
       </c>
       <c r="C97" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -5143,7 +5143,7 @@
         <v>9008</v>
       </c>
       <c r="C98" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -5184,7 +5184,7 @@
         <v>9008</v>
       </c>
       <c r="C99" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -5225,7 +5225,7 @@
         <v>9008</v>
       </c>
       <c r="C100" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -5266,7 +5266,7 @@
         <v>9009</v>
       </c>
       <c r="C101" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5307,7 +5307,7 @@
         <v>9009</v>
       </c>
       <c r="C102" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5348,7 +5348,7 @@
         <v>9009</v>
       </c>
       <c r="C103" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5389,7 +5389,7 @@
         <v>9010</v>
       </c>
       <c r="C104" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5430,7 +5430,7 @@
         <v>9010</v>
       </c>
       <c r="C105" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -5471,7 +5471,7 @@
         <v>9010</v>
       </c>
       <c r="C106" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>9011</v>
       </c>
       <c r="C107" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>9011</v>
       </c>
       <c r="C108" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5594,7 +5594,7 @@
         <v>9011</v>
       </c>
       <c r="C109" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5635,7 +5635,7 @@
         <v>9012</v>
       </c>
       <c r="C110" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -5676,7 +5676,7 @@
         <v>9012</v>
       </c>
       <c r="C111" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5717,7 +5717,7 @@
         <v>9012</v>
       </c>
       <c r="C112" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -5758,7 +5758,7 @@
         <v>9013</v>
       </c>
       <c r="C113" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5799,7 +5799,7 @@
         <v>9013</v>
       </c>
       <c r="C114" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5840,7 +5840,7 @@
         <v>9013</v>
       </c>
       <c r="C115" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5881,7 +5881,7 @@
         <v>9014</v>
       </c>
       <c r="C116" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5922,7 +5922,7 @@
         <v>9014</v>
       </c>
       <c r="C117" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -5963,7 +5963,7 @@
         <v>9014</v>
       </c>
       <c r="C118" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>9015</v>
       </c>
       <c r="C119" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>9015</v>
       </c>
       <c r="C120" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -6086,7 +6086,7 @@
         <v>9015</v>
       </c>
       <c r="C121" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -6127,7 +6127,7 @@
         <v>9020</v>
       </c>
       <c r="C122" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -6168,7 +6168,7 @@
         <v>9020</v>
       </c>
       <c r="C123" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -6209,7 +6209,7 @@
         <v>9020</v>
       </c>
       <c r="C124" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -6250,7 +6250,7 @@
         <v>9021</v>
       </c>
       <c r="C125" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -6291,7 +6291,7 @@
         <v>9021</v>
       </c>
       <c r="C126" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -6332,7 +6332,7 @@
         <v>9021</v>
       </c>
       <c r="C127" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -6373,7 +6373,7 @@
         <v>9022</v>
       </c>
       <c r="C128" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -6414,7 +6414,7 @@
         <v>9022</v>
       </c>
       <c r="C129" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -6455,7 +6455,7 @@
         <v>9022</v>
       </c>
       <c r="C130" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>9023</v>
       </c>
       <c r="C131" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -6537,7 +6537,7 @@
         <v>9023</v>
       </c>
       <c r="C132" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -6578,7 +6578,7 @@
         <v>9023</v>
       </c>
       <c r="C133" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -6619,7 +6619,7 @@
         <v>9030</v>
       </c>
       <c r="C134" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -6660,7 +6660,7 @@
         <v>9030</v>
       </c>
       <c r="C135" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -6701,7 +6701,7 @@
         <v>9030</v>
       </c>
       <c r="C136" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -6742,7 +6742,7 @@
         <v>9031</v>
       </c>
       <c r="C137" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -6783,7 +6783,7 @@
         <v>9031</v>
       </c>
       <c r="C138" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -6824,7 +6824,7 @@
         <v>9031</v>
       </c>
       <c r="C139" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -6865,7 +6865,7 @@
         <v>9032</v>
       </c>
       <c r="C140" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -6906,7 +6906,7 @@
         <v>9032</v>
       </c>
       <c r="C141" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -6947,7 +6947,7 @@
         <v>9032</v>
       </c>
       <c r="C142" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -6988,7 +6988,7 @@
         <v>9033</v>
       </c>
       <c r="C143" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -7029,7 +7029,7 @@
         <v>9033</v>
       </c>
       <c r="C144" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -7070,7 +7070,7 @@
         <v>9033</v>
       </c>
       <c r="C145" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -7111,7 +7111,7 @@
         <v>2000</v>
       </c>
       <c r="C146" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -7152,7 +7152,7 @@
         <v>2000</v>
       </c>
       <c r="C147" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>2000</v>
       </c>
       <c r="C148" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -7234,7 +7234,7 @@
         <v>2001</v>
       </c>
       <c r="C149" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -7275,7 +7275,7 @@
         <v>2001</v>
       </c>
       <c r="C150" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -7316,7 +7316,7 @@
         <v>2001</v>
       </c>
       <c r="C151" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -7357,7 +7357,7 @@
         <v>2002</v>
       </c>
       <c r="C152" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>2002</v>
       </c>
       <c r="C153" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -7439,7 +7439,7 @@
         <v>2002</v>
       </c>
       <c r="C154" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -7480,7 +7480,7 @@
         <v>2003</v>
       </c>
       <c r="C155" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -7521,7 +7521,7 @@
         <v>2003</v>
       </c>
       <c r="C156" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -7562,7 +7562,7 @@
         <v>2003</v>
       </c>
       <c r="C157" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D157">
         <v>2</v>
@@ -7603,7 +7603,7 @@
         <v>2004</v>
       </c>
       <c r="C158" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D158">
         <v>2</v>
@@ -7644,7 +7644,7 @@
         <v>2004</v>
       </c>
       <c r="C159" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D159">
         <v>2</v>
@@ -7685,7 +7685,7 @@
         <v>2004</v>
       </c>
       <c r="C160" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -7726,7 +7726,7 @@
         <v>2005</v>
       </c>
       <c r="C161" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D161">
         <v>2</v>
@@ -7767,7 +7767,7 @@
         <v>2005</v>
       </c>
       <c r="C162" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D162">
         <v>2</v>
@@ -7808,7 +7808,7 @@
         <v>2005</v>
       </c>
       <c r="C163" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="D163">
         <v>2</v>
@@ -7849,7 +7849,7 @@
         <v>2006</v>
       </c>
       <c r="C164" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D164">
         <v>2</v>
@@ -7890,7 +7890,7 @@
         <v>2006</v>
       </c>
       <c r="C165" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D165">
         <v>2</v>
@@ -7931,7 +7931,7 @@
         <v>2006</v>
       </c>
       <c r="C166" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="D166">
         <v>2</v>
@@ -7972,7 +7972,7 @@
         <v>2007</v>
       </c>
       <c r="C167" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D167">
         <v>2</v>
@@ -8013,7 +8013,7 @@
         <v>2007</v>
       </c>
       <c r="C168" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D168">
         <v>2</v>
@@ -8054,7 +8054,7 @@
         <v>2007</v>
       </c>
       <c r="C169" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="D169">
         <v>2</v>
@@ -8095,7 +8095,7 @@
         <v>2008</v>
       </c>
       <c r="C170" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D170">
         <v>2</v>
@@ -8136,7 +8136,7 @@
         <v>2008</v>
       </c>
       <c r="C171" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D171">
         <v>2</v>
@@ -8177,7 +8177,7 @@
         <v>2008</v>
       </c>
       <c r="C172" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D172">
         <v>2</v>
@@ -8218,7 +8218,7 @@
         <v>2009</v>
       </c>
       <c r="C173" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D173">
         <v>2</v>
@@ -8259,7 +8259,7 @@
         <v>2009</v>
       </c>
       <c r="C174" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D174">
         <v>2</v>
@@ -8300,7 +8300,7 @@
         <v>2009</v>
       </c>
       <c r="C175" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D175">
         <v>2</v>
@@ -8341,7 +8341,7 @@
         <v>2010</v>
       </c>
       <c r="C176" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D176">
         <v>2</v>
@@ -8382,7 +8382,7 @@
         <v>2010</v>
       </c>
       <c r="C177" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D177">
         <v>2</v>
@@ -8423,7 +8423,7 @@
         <v>2010</v>
       </c>
       <c r="C178" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D178">
         <v>2</v>
@@ -8464,7 +8464,7 @@
         <v>2010</v>
       </c>
       <c r="C179" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D179">
         <v>2</v>
@@ -8505,7 +8505,7 @@
         <v>2011</v>
       </c>
       <c r="C180" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -8546,7 +8546,7 @@
         <v>2011</v>
       </c>
       <c r="C181" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D181">
         <v>2</v>
@@ -8587,7 +8587,7 @@
         <v>2010</v>
       </c>
       <c r="C182" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D182">
         <v>2</v>
@@ -8628,7 +8628,7 @@
         <v>2012</v>
       </c>
       <c r="C183" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D183">
         <v>2</v>
@@ -8669,7 +8669,7 @@
         <v>2012</v>
       </c>
       <c r="C184" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D184">
         <v>2</v>
@@ -8710,7 +8710,7 @@
         <v>3000</v>
       </c>
       <c r="C185" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -8751,7 +8751,7 @@
         <v>3000</v>
       </c>
       <c r="C186" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -8792,7 +8792,7 @@
         <v>3000</v>
       </c>
       <c r="C187" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -8833,7 +8833,7 @@
         <v>3001</v>
       </c>
       <c r="C188" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -8874,7 +8874,7 @@
         <v>3001</v>
       </c>
       <c r="C189" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -8915,7 +8915,7 @@
         <v>3001</v>
       </c>
       <c r="C190" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -8956,7 +8956,7 @@
         <v>3002</v>
       </c>
       <c r="C191" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -8997,7 +8997,7 @@
         <v>3002</v>
       </c>
       <c r="C192" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -9038,7 +9038,7 @@
         <v>3002</v>
       </c>
       <c r="C193" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -9095,15 +9095,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -9111,7 +9111,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -9127,15 +9127,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -9143,7 +9143,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -9159,7 +9159,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -9167,7 +9167,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>6</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>7</v>
@@ -9191,7 +9191,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -9199,15 +9199,15 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -9223,7 +9223,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -9231,15 +9231,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -9255,7 +9255,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -9263,15 +9263,15 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -9287,7 +9287,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>3</v>

--- a/data_template.xlsx
+++ b/data_template.xlsx
@@ -1135,7 +1135,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1210,19 +1210,19 @@
         <v>40</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>72579</v>
@@ -1251,19 +1251,19 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1">
         <v>18030</v>
@@ -1292,19 +1292,19 @@
         <v>40</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
         <v>72803</v>
@@ -1333,19 +1333,19 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1">
         <v>29580</v>
@@ -1374,19 +1374,19 @@
         <v>46</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>43651</v>
@@ -1415,19 +1415,19 @@
         <v>46</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1">
         <v>81471</v>
@@ -1456,19 +1456,19 @@
         <v>47</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>76586</v>
@@ -1497,19 +1497,19 @@
         <v>47</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>22622</v>
@@ -1538,19 +1538,19 @@
         <v>47</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1">
         <v>16650</v>
@@ -1579,19 +1579,19 @@
         <v>75</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
         <v>38587</v>
@@ -1620,19 +1620,19 @@
         <v>75</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <v>86544</v>
@@ -1661,19 +1661,19 @@
         <v>75</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
         <v>28415</v>
@@ -1702,19 +1702,19 @@
         <v>88</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>39487</v>
@@ -1743,19 +1743,19 @@
         <v>88</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>15453</v>
@@ -1784,19 +1784,19 @@
         <v>88</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1">
         <v>32570</v>
@@ -1825,19 +1825,19 @@
         <v>48</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <v>53036</v>
@@ -1866,19 +1866,19 @@
         <v>48</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
         <v>79878</v>
@@ -1907,19 +1907,19 @@
         <v>48</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1">
         <v>38131</v>
@@ -1948,19 +1948,19 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <v>57116</v>
@@ -1989,19 +1989,19 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" s="1">
         <v>39686</v>
@@ -2030,19 +2030,19 @@
         <v>3</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1">
         <v>71104</v>
@@ -2071,19 +2071,19 @@
         <v>98</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <v>12329</v>
@@ -2112,19 +2112,19 @@
         <v>98</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>64615</v>
@@ -2153,19 +2153,19 @@
         <v>98</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" s="1">
         <v>87644</v>
@@ -2194,19 +2194,19 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <v>46000</v>
@@ -2235,19 +2235,19 @@
         <v>4</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" s="1">
         <v>28787</v>
@@ -2276,19 +2276,19 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" s="1">
         <v>35903</v>
@@ -2317,19 +2317,19 @@
         <v>76</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
         <v>57728</v>
@@ -2358,19 +2358,19 @@
         <v>76</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
         <v>92933</v>
@@ -2399,19 +2399,19 @@
         <v>76</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1">
         <v>48250</v>
@@ -2440,19 +2440,19 @@
         <v>41</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <v>25399</v>
@@ -2481,19 +2481,19 @@
         <v>41</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <v>58800</v>
@@ -2522,19 +2522,19 @@
         <v>41</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1">
         <v>81066</v>
@@ -2563,19 +2563,19 @@
         <v>49</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
         <v>85211</v>
@@ -2604,19 +2604,19 @@
         <v>49</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
         <v>71849</v>
@@ -2645,19 +2645,19 @@
         <v>49</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1">
         <v>97266</v>
@@ -2686,19 +2686,19 @@
         <v>50</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
         <v>27572</v>
@@ -2727,19 +2727,19 @@
         <v>50</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" s="1">
         <v>28762</v>
@@ -2768,19 +2768,19 @@
         <v>50</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1">
         <v>13601</v>
@@ -2809,19 +2809,19 @@
         <v>77</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1">
         <v>20443</v>
@@ -2850,19 +2850,19 @@
         <v>77</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" s="1">
         <v>77371</v>
@@ -2891,19 +2891,19 @@
         <v>77</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" s="1">
         <v>39001</v>
@@ -2932,19 +2932,19 @@
         <v>89</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1">
         <v>29099</v>
@@ -2973,19 +2973,19 @@
         <v>89</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" s="1">
         <v>55540</v>
@@ -3014,19 +3014,19 @@
         <v>89</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" s="1">
         <v>23179</v>
@@ -3055,19 +3055,19 @@
         <v>51</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1">
         <v>21172</v>
@@ -3096,19 +3096,19 @@
         <v>51</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" s="1">
         <v>85523</v>
@@ -3137,19 +3137,19 @@
         <v>51</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1">
         <v>32943</v>
@@ -3178,19 +3178,19 @@
         <v>42</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1">
         <v>34297</v>
@@ -3219,19 +3219,19 @@
         <v>42</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" s="1">
         <v>96936</v>
@@ -3260,19 +3260,19 @@
         <v>42</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" s="1">
         <v>84085</v>
@@ -3301,19 +3301,19 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1">
         <v>86422</v>
@@ -3342,19 +3342,19 @@
         <v>52</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1">
         <v>78703</v>
@@ -3383,19 +3383,19 @@
         <v>52</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" s="1">
         <v>93215</v>
@@ -3424,19 +3424,19 @@
         <v>53</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
         <v>40748</v>
@@ -3465,19 +3465,19 @@
         <v>53</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1">
         <v>70631</v>
@@ -3506,19 +3506,19 @@
         <v>53</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" s="1">
         <v>33472</v>
@@ -3547,19 +3547,19 @@
         <v>90</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
         <v>68329</v>
@@ -3588,19 +3588,19 @@
         <v>90</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" s="1">
         <v>24313</v>
@@ -3629,19 +3629,19 @@
         <v>90</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" s="1">
         <v>90368</v>
@@ -3670,19 +3670,19 @@
         <v>81</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1">
         <v>41336</v>
@@ -3711,19 +3711,19 @@
         <v>81</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" s="1">
         <v>99914</v>
@@ -3752,19 +3752,19 @@
         <v>81</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" s="1">
         <v>65043</v>
@@ -3793,19 +3793,19 @@
         <v>91</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1">
         <v>58612</v>
@@ -3834,19 +3834,19 @@
         <v>91</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" s="1">
         <v>41003</v>
@@ -3875,19 +3875,19 @@
         <v>91</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" s="1">
         <v>85074</v>
@@ -3916,19 +3916,19 @@
         <v>82</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
         <v>79466</v>
@@ -3957,19 +3957,19 @@
         <v>82</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1">
         <v>69632</v>
@@ -3998,19 +3998,19 @@
         <v>82</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" s="1">
         <v>35917</v>
@@ -4039,19 +4039,19 @@
         <v>92</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1">
         <v>91602</v>
@@ -4080,19 +4080,19 @@
         <v>92</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <v>50202</v>
@@ -4121,19 +4121,19 @@
         <v>92</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73" s="1">
         <v>10586</v>
@@ -4162,19 +4162,19 @@
         <v>43</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1">
         <v>26672</v>
@@ -4203,19 +4203,19 @@
         <v>43</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" s="1">
         <v>22731</v>
@@ -4244,19 +4244,19 @@
         <v>43</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I76" s="1">
         <v>57908</v>
@@ -4285,19 +4285,19 @@
         <v>54</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1">
         <v>64161</v>
@@ -4326,19 +4326,19 @@
         <v>54</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
         <v>68450</v>
@@ -4367,19 +4367,19 @@
         <v>54</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" s="1">
         <v>87992</v>
@@ -4408,19 +4408,19 @@
         <v>55</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1">
         <v>35786</v>
@@ -4449,19 +4449,19 @@
         <v>55</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <v>91394</v>
@@ -4490,19 +4490,19 @@
         <v>55</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" s="1">
         <v>38034</v>
@@ -4531,19 +4531,19 @@
         <v>78</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" s="1">
         <v>87352</v>
@@ -4572,19 +4572,19 @@
         <v>78</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" s="1">
         <v>70006</v>
@@ -4613,19 +4613,19 @@
         <v>78</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85" s="1">
         <v>36528</v>
@@ -4654,19 +4654,19 @@
         <v>93</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" s="1">
         <v>35348</v>
@@ -4695,19 +4695,19 @@
         <v>93</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" s="1">
         <v>87508</v>
@@ -4736,19 +4736,19 @@
         <v>93</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I88" s="1">
         <v>56632</v>
@@ -4777,19 +4777,19 @@
         <v>56</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="1">
         <v>91760</v>
@@ -4818,19 +4818,19 @@
         <v>56</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" s="1">
         <v>92375</v>
@@ -4859,19 +4859,19 @@
         <v>56</v>
       </c>
       <c r="D91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" s="1">
         <v>60331</v>
@@ -4900,19 +4900,19 @@
         <v>37</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" s="1">
         <v>61131</v>
@@ -4941,19 +4941,19 @@
         <v>37</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" s="1">
         <v>63584</v>
@@ -4982,19 +4982,19 @@
         <v>37</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" s="1">
         <v>56208</v>
@@ -5023,19 +5023,19 @@
         <v>99</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" s="1">
         <v>74799</v>
@@ -5064,19 +5064,19 @@
         <v>99</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" s="1">
         <v>44264</v>
@@ -5105,19 +5105,19 @@
         <v>99</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" s="1">
         <v>30518</v>
@@ -5146,19 +5146,19 @@
         <v>38</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" s="1">
         <v>43008</v>
@@ -5187,19 +5187,19 @@
         <v>38</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" s="1">
         <v>17971</v>
@@ -5228,19 +5228,19 @@
         <v>38</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" s="1">
         <v>44125</v>
@@ -5269,19 +5269,19 @@
         <v>79</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="1">
         <v>16034</v>
@@ -5310,19 +5310,19 @@
         <v>79</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" s="1">
         <v>74295</v>
@@ -5351,19 +5351,19 @@
         <v>79</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I103" s="1">
         <v>13312</v>
@@ -5392,19 +5392,19 @@
         <v>44</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" s="1">
         <v>23227</v>
@@ -5433,19 +5433,19 @@
         <v>44</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" s="1">
         <v>78317</v>
@@ -5474,19 +5474,19 @@
         <v>44</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I106" s="1">
         <v>36134</v>
@@ -5515,19 +5515,19 @@
         <v>57</v>
       </c>
       <c r="D107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" s="1">
         <v>60200</v>
@@ -5556,19 +5556,19 @@
         <v>57</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" s="1">
         <v>52341</v>
@@ -5597,19 +5597,19 @@
         <v>57</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I109" s="1">
         <v>50531</v>
@@ -5638,19 +5638,19 @@
         <v>58</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" s="1">
         <v>86020</v>
@@ -5679,19 +5679,19 @@
         <v>58</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" s="1">
         <v>27288</v>
@@ -5720,19 +5720,19 @@
         <v>58</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" s="1">
         <v>62583</v>
@@ -5761,19 +5761,19 @@
         <v>80</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" s="1">
         <v>10511</v>
@@ -5802,19 +5802,19 @@
         <v>80</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" s="1">
         <v>32644</v>
@@ -5843,19 +5843,19 @@
         <v>80</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" s="1">
         <v>30239</v>
@@ -5884,19 +5884,19 @@
         <v>94</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" s="1">
         <v>30033</v>
@@ -5925,19 +5925,19 @@
         <v>94</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" s="1">
         <v>34365</v>
@@ -5966,19 +5966,19 @@
         <v>94</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" s="1">
         <v>71974</v>
@@ -6007,19 +6007,19 @@
         <v>59</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" s="1">
         <v>46178</v>
@@ -6048,19 +6048,19 @@
         <v>59</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" s="1">
         <v>54280</v>
@@ -6089,19 +6089,19 @@
         <v>59</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" s="1">
         <v>13614</v>
@@ -6130,19 +6130,19 @@
         <v>45</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" s="1">
         <v>42067</v>
@@ -6171,19 +6171,19 @@
         <v>45</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" s="1">
         <v>61205</v>
@@ -6212,19 +6212,19 @@
         <v>45</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I124" s="1">
         <v>43272</v>
@@ -6253,19 +6253,19 @@
         <v>60</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" s="1">
         <v>79345</v>
@@ -6294,19 +6294,19 @@
         <v>60</v>
       </c>
       <c r="D126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" s="1">
         <v>19924</v>
@@ -6335,19 +6335,19 @@
         <v>60</v>
       </c>
       <c r="D127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" s="1">
         <v>30554</v>
@@ -6376,19 +6376,19 @@
         <v>61</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" s="1">
         <v>88606</v>
@@ -6417,19 +6417,19 @@
         <v>61</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" s="1">
         <v>59964</v>
@@ -6458,19 +6458,19 @@
         <v>61</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" s="1">
         <v>25261</v>
@@ -6499,19 +6499,19 @@
         <v>95</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" s="1">
         <v>74367</v>
@@ -6540,19 +6540,19 @@
         <v>95</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" s="1">
         <v>70568</v>
@@ -6581,19 +6581,19 @@
         <v>95</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I133" s="1">
         <v>47860</v>
@@ -6622,19 +6622,19 @@
         <v>83</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" s="1">
         <v>73170</v>
@@ -6663,19 +6663,19 @@
         <v>83</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" s="1">
         <v>12095</v>
@@ -6704,19 +6704,19 @@
         <v>83</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I136" s="1">
         <v>59944</v>
@@ -6745,19 +6745,19 @@
         <v>96</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" s="1">
         <v>46500</v>
@@ -6786,19 +6786,19 @@
         <v>96</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" s="1">
         <v>48663</v>
@@ -6827,19 +6827,19 @@
         <v>96</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" s="1">
         <v>76407</v>
@@ -6868,19 +6868,19 @@
         <v>84</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E140">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F140">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" s="1">
         <v>82618</v>
@@ -6909,19 +6909,19 @@
         <v>84</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" s="1">
         <v>30150</v>
@@ -6950,19 +6950,19 @@
         <v>84</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" s="1">
         <v>46382</v>
@@ -6991,19 +6991,19 @@
         <v>97</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" s="1">
         <v>92387</v>
@@ -7032,19 +7032,19 @@
         <v>97</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" s="1">
         <v>41950</v>
@@ -7073,19 +7073,19 @@
         <v>97</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" s="1">
         <v>26647</v>
@@ -7114,19 +7114,19 @@
         <v>62</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" s="1">
         <v>13973</v>
@@ -7155,19 +7155,19 @@
         <v>62</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" s="1">
         <v>61943</v>
@@ -7196,19 +7196,19 @@
         <v>62</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I148" s="1">
         <v>34479</v>
@@ -7237,19 +7237,19 @@
         <v>63</v>
       </c>
       <c r="D149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" s="1">
         <v>63054</v>
@@ -7278,19 +7278,19 @@
         <v>63</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E150">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" s="1">
         <v>67560</v>
@@ -7319,19 +7319,19 @@
         <v>63</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E151">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" s="1">
         <v>59106</v>
@@ -7360,19 +7360,19 @@
         <v>64</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" s="1">
         <v>51913</v>
@@ -7401,19 +7401,19 @@
         <v>64</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" s="1">
         <v>86003</v>
@@ -7442,19 +7442,19 @@
         <v>64</v>
       </c>
       <c r="D154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E154">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I154" s="1">
         <v>83746</v>
@@ -7483,19 +7483,19 @@
         <v>65</v>
       </c>
       <c r="D155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" s="1">
         <v>57671</v>
@@ -7524,19 +7524,19 @@
         <v>65</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" s="1">
         <v>60185</v>
@@ -7565,19 +7565,19 @@
         <v>65</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" s="1">
         <v>63454</v>
@@ -7606,19 +7606,19 @@
         <v>66</v>
       </c>
       <c r="D158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" s="1">
         <v>31088</v>
@@ -7647,19 +7647,19 @@
         <v>66</v>
       </c>
       <c r="D159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E159">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" s="1">
         <v>47530</v>
@@ -7688,19 +7688,19 @@
         <v>66</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I160" s="1">
         <v>25520</v>
@@ -7729,19 +7729,19 @@
         <v>67</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" s="1">
         <v>52345</v>
@@ -7770,19 +7770,19 @@
         <v>67</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" s="1">
         <v>93001</v>
@@ -7811,19 +7811,19 @@
         <v>67</v>
       </c>
       <c r="D163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" s="1">
         <v>71898</v>
@@ -7852,19 +7852,19 @@
         <v>68</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" s="1">
         <v>86205</v>
@@ -7893,19 +7893,19 @@
         <v>68</v>
       </c>
       <c r="D165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" s="1">
         <v>91893</v>
@@ -7934,19 +7934,19 @@
         <v>68</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E166">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" s="1">
         <v>82987</v>
@@ -7975,19 +7975,19 @@
         <v>69</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" s="1">
         <v>35760</v>
@@ -8016,19 +8016,19 @@
         <v>69</v>
       </c>
       <c r="D168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" s="1">
         <v>27957</v>
@@ -8057,19 +8057,19 @@
         <v>69</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" s="1">
         <v>38400</v>
@@ -8098,19 +8098,19 @@
         <v>70</v>
       </c>
       <c r="D170">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" s="1">
         <v>12342</v>
@@ -8139,19 +8139,19 @@
         <v>70</v>
       </c>
       <c r="D171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" s="1">
         <v>90305</v>
@@ -8180,19 +8180,19 @@
         <v>70</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I172" s="1">
         <v>71816</v>
@@ -8221,19 +8221,19 @@
         <v>71</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" s="1">
         <v>75362</v>
@@ -8262,19 +8262,19 @@
         <v>71</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" s="1">
         <v>73949</v>
@@ -8303,19 +8303,19 @@
         <v>71</v>
       </c>
       <c r="D175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" s="1">
         <v>29831</v>
@@ -8344,19 +8344,19 @@
         <v>85</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" s="1">
         <v>89329</v>
@@ -8385,19 +8385,19 @@
         <v>85</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" s="1">
         <v>33807</v>
@@ -8426,19 +8426,19 @@
         <v>85</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" s="1">
         <v>85377</v>
@@ -8467,19 +8467,19 @@
         <v>86</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" s="1">
         <v>81961</v>
@@ -8508,19 +8508,19 @@
         <v>86</v>
       </c>
       <c r="D180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" s="1">
         <v>19574</v>
@@ -8549,19 +8549,19 @@
         <v>86</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181" s="1">
         <v>41305</v>
@@ -8590,19 +8590,19 @@
         <v>87</v>
       </c>
       <c r="D182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" s="1">
         <v>40607</v>
@@ -8631,19 +8631,19 @@
         <v>87</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" s="1">
         <v>37583</v>
@@ -8672,19 +8672,19 @@
         <v>87</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I184" s="1">
         <v>22260</v>
@@ -8713,19 +8713,19 @@
         <v>72</v>
       </c>
       <c r="D185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E185">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" s="1">
         <v>73478</v>
@@ -8754,19 +8754,19 @@
         <v>72</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" s="1">
         <v>40621</v>
@@ -8795,19 +8795,19 @@
         <v>72</v>
       </c>
       <c r="D187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E187">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I187" s="1">
         <v>56960</v>
@@ -8836,19 +8836,19 @@
         <v>73</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E188">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" s="1">
         <v>76979</v>
@@ -8877,19 +8877,19 @@
         <v>73</v>
       </c>
       <c r="D189">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E189">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" s="1">
         <v>79423</v>
@@ -8918,19 +8918,19 @@
         <v>73</v>
       </c>
       <c r="D190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H190">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" s="1">
         <v>58181</v>
@@ -8959,19 +8959,19 @@
         <v>74</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E191">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" s="1">
         <v>23752</v>
@@ -9000,19 +9000,19 @@
         <v>74</v>
       </c>
       <c r="D192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" s="1">
         <v>82862</v>
@@ -9041,19 +9041,19 @@
         <v>74</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E193">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I193" s="1">
         <v>59450</v>
@@ -9085,7 +9085,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -9114,7 +9114,7 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -9122,7 +9122,7 @@
         <v>24</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -9138,7 +9138,7 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -9146,7 +9146,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -9154,7 +9154,7 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -9162,7 +9162,7 @@
         <v>33</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -9170,7 +9170,7 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -9178,7 +9178,7 @@
         <v>34</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -9186,7 +9186,7 @@
         <v>35</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -9194,7 +9194,7 @@
         <v>36</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -9210,7 +9210,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -9218,7 +9218,7 @@
         <v>39</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -9226,7 +9226,7 @@
         <v>32</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -9242,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -9250,7 +9250,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -9258,7 +9258,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -9274,7 +9274,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -9282,7 +9282,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -9290,7 +9290,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
